--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/37_Hatay_2020.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/37_Hatay_2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75D4AB33-1EA4-4D1C-BB93-1D2461FB92DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AC37AB7-EC55-40DF-BA62-98B504D0D1DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="669" xr2:uid="{25B97D20-9B3B-4A3C-A001-2623B02BD1B8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="669" xr2:uid="{A765F4E0-5385-4F06-BA1F-A2C593B205F6}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -952,13 +952,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{49003D6E-F164-458D-86C9-5BE7C97B9EEF}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{5A36865B-E05F-49AE-AD24-6D1E81BA0C98}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{10138423-E898-4DF8-B8CB-540481918687}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{A7F7E916-53E0-4346-AA78-47717698D5BA}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{6C1ADF07-4F8A-4221-A797-C780469693DD}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{D9EB276D-38C4-4089-8EC8-0102A92BE991}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{33C9A21E-2F21-4531-912F-92113CAF41B4}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{62173549-29A5-4C96-BAC4-3ED606B50D87}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{09A71DF5-CF7F-4F75-AB5A-CE5D47AAEAC1}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{0D0C2BF8-74E0-493B-BA73-55116740C134}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{A8BB21BC-3248-43C4-9B03-279E742C55E8}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{7203AE2A-BC2B-4D86-BD28-A548F8838022}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{374B3EAB-9DBC-4E6A-8421-BBD02E10E73C}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{E437E678-D317-46CA-9C0A-5392B01765CC}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1328,7 +1328,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAEE9A8D-03F4-49A9-B530-8D3F30F95FFA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C17D295-B8CB-42A4-ACC8-3CB3629C1DF0}">
   <dimension ref="A2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2596,18 +2596,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E875871B-722E-413A-B4E1-1DB325C09DAF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4FC0C49A-413F-442C-A06E-95C2D457292A}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2A4C31B2-FBD2-4358-92D8-ABB8B038C2ED}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{477E940C-5450-4C71-9905-7FF577D6FBD4}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{5E942AAC-570E-452B-AE10-8DFF7C5927FA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0AB9FD6A-1C4F-499C-AC54-49A4DC8060AE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6275796C-6BC5-44D7-B321-35755317F343}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{544A9137-3978-45B4-AFF3-6B249EEFC4B6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EB3726F5-6837-45FA-9D42-361A3389CA8A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{80A8DAE3-4AD7-499B-B496-F5345398574E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{31275012-53E7-4F82-B095-40CA21B007AF}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BB624F35-BD81-4E2C-BB23-E58850CB2267}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{41DFCC1D-9255-4E78-A301-CF28CCFBA12D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{125FA005-FACB-4C80-891D-C301DE506EAD}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{30CF7F15-F480-47B3-9063-C99B4F4ED63B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{34E728A5-4550-4C1B-93BE-CC53B6D49C8A}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{ECC5820F-7477-47FF-8A13-296D92DCCCA3}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9776C533-10E9-4629-8D82-D0760A3CC739}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DEF21A5E-6785-43E7-BA0F-E79FA5E6F509}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6734A32C-6410-43A3-997B-402E483B6CBE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{43C1DA80-D308-4D0A-8740-70DD9BF54D9B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{60B0B651-F8E5-411D-8F06-1ED297D0EDAA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1A11930F-0627-43FE-9379-0ADE614E40E3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{25CA9B39-265F-4D3F-B0C7-D2B8B73F50A9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2620,7 +2620,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8924543-EE01-4179-9ACF-3C3297BF5660}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3E30E70-6A8A-43EC-8F78-C1983EBA8CFE}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3877,18 +3877,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E4819B0C-0541-4598-8500-DA48CF2FBB1A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{849C4DD9-4E26-4B04-88EB-550E52E228F4}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8AEA4B1D-C18E-408A-8B3C-9B355DD3E59B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FC917792-2E21-47EF-AE83-19418493BC32}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{50ED323D-F195-43BA-83B9-5983ADAC6636}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{28E4A84F-9034-40E4-B341-492A212C7E69}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3AA391AB-6B52-4617-A25F-02D4C0937D44}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CB9C8B1E-C17E-4C94-8B6B-9228A945CCAC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{69857F77-C5DB-4C1C-BB56-7B43E6F0ED08}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3EE6CF2B-587C-4735-9986-556819F793B8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9DDCD8A7-1EA2-42EB-84B6-73841273679D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{93EB2D44-D5AB-4692-A593-452E47ED5AA1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{18F3A43E-D4D0-420B-B159-F92E63BCDA23}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F9D0227B-1460-4CDB-9E4A-FA1F702BF22C}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3273B7B1-5F6C-4F63-8825-E3BF9B5CE4E3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{568A3F92-94E8-4417-9BA5-88001D11809A}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{C75FC08D-7098-4407-AA2E-137DB485E1C0}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F849B31F-C9FC-47FC-ACA8-3043118D9EAD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F7AEACAD-05B1-4FE0-8CB6-35B9EC4A4A9D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{755F8B45-7B56-4AE0-B6D0-1968D5DB150D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D8BFBDF3-8962-43CB-ACA4-7ACAF3610ED5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B173C85A-9071-4F9F-A068-7F5D30BB4C25}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E3B200CB-F10D-4D01-BA08-16E0901FF048}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BDFA043D-FF55-468A-BF32-22E28513006E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3901,7 +3901,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04225205-B6B7-477F-8828-1AB385C60761}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5143CFD5-6765-452D-B80D-FE19FB330789}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5154,18 +5154,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{123C0EFA-C097-412B-A42E-AD58AF692E43}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C89B867D-0B3E-4109-8462-9BC55FACD0AD}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C48EC675-EE5D-4DAF-BFBC-4358344B4202}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{710543B6-0C62-40EF-9FAA-761FF7EC4FA5}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{7D9F81F6-843A-4880-8C0D-8AAF7E374AC7}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6FDA948F-08C4-4B85-BB8B-DE2F3A14F688}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BCBB5BF8-F59B-44F6-977C-C81AFF055B7E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{25D88BDE-B902-435E-99C9-C064C1047D68}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{35B49E51-ABC9-4EA9-BB03-C39CD6FDE578}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3FB6F4AD-8DE1-4D92-B784-142A7C7DD5D9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7DBFE7C1-9302-42BA-8E4B-4FE105A2CF1E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5648E512-E133-4D9E-B29B-C514302E202F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F44F7EFB-599A-42F3-B97F-DA78C60F6C48}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5E3561C9-285B-4ADA-87FF-18A9270F502C}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3A1E62F1-02A0-4C34-A1EE-90DB876ACE9C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3D7CABA0-0702-4E8F-B3E3-E7CFD729D7B8}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{3550C26A-925B-4FF4-9EE7-B8A9A1A848CD}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BBB7C908-A1A0-4179-9B86-C9B09F15871F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BC98706D-8731-49E6-AD13-74FDA9E5F599}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{451D1D3E-2D39-41DA-8733-D873C3E07290}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6482C328-BDDF-4E16-BD06-95F36B4A819F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{ABE3147E-DDFE-44D9-91C6-6F3B56DAA106}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{70D2B7D5-9E06-48CB-95B0-CEBA5CF59559}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{94E6B42C-8C68-480F-A759-80DCD166DAD3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5178,7 +5178,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FAA6AC7-9548-42CB-B438-22EA7CFAB00A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D91245-5CC6-4031-8DC0-1BA7A026E548}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6426,18 +6426,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{83EE8353-6BFF-4D32-B048-74ECC8474866}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BB2A20A9-EECD-4F2E-89B4-0ACEFC2F8FB5}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B7DC1E89-7BB4-471B-B4B2-27D702CB3814}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BD46CA6F-A0C8-4F14-851E-EB9B20E4F4E7}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{F8E6762C-BB54-4FC0-8E44-35B3194A548A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{657B5129-A5FA-44F6-9469-68A9E8FDD2A6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9C07E386-F2FB-4297-9905-ADD04C251F00}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2A26F0A0-B2F3-41C5-8202-DA8831E690E0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BFA038D5-B441-4E50-B798-F296997D064B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{31F91D97-308A-48DC-AE75-ACC7C000AE4E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5F47F5E1-3D60-41F3-878D-15AE3B122B21}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{732B6E53-3437-480A-8A7B-97F0B58A62B8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{87FA0597-818F-4765-B53C-8425BEAFBCCD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{413EC200-070D-4ED3-8F3D-CF0196ACEF98}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C5D9C2A2-65BF-443E-99E6-843C4DDFB0E3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F8E57ECD-16F8-45DB-ABA5-18B8639AE8E1}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{5D8DE2B1-7C85-49E3-BC76-9BB0A0055B62}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A5CFAD9A-F67D-4996-B542-196EA9E85419}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B3CE1DE3-98E5-4CE0-82B0-1470E60DE136}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8B9D4BAC-24AB-4E5B-B229-3942412AF7FE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{81B64350-F7B9-40D4-8A11-3F60D3585832}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1F914206-42B3-491D-A1CA-39F328C6EF5B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{832D868E-57B3-47B7-BAB6-AC371BF42B46}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9E17C1CA-6F34-4435-9C84-FF34D22F3779}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6450,7 +6450,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E43FE73-9225-4906-A7B1-832E951F2B04}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9D5C022-3ACC-4EB9-B373-1DA1B2C79CDD}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7715,18 +7715,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{05A30DDD-1939-479A-A596-2D5F17C26281}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EDAD5476-50F1-47D2-A0B2-203F1B4E2F08}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7A939551-8772-4E8A-A935-00FF09BA98C8}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4431726F-6F71-4816-9D5A-24D78EB4D954}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{1D8D7E40-8BE5-4463-84D2-40B970770D77}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{916398E3-4420-4B64-8BDE-F8F8BC34375F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D2DD6F59-5011-4CE5-B809-D5324C3376EE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F3470712-13D6-40EB-8E96-CA4AF02D18DF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4929B95D-5564-4512-B99D-C2FBC819DDD6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C0325BE1-5AD5-4263-A924-A7EE2A748859}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3F5E5F7E-B9A5-4D66-BBA2-5850AFA1AFAC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{57BC22A2-885D-4867-99C6-C2885DE95B43}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{00FB8AAA-A7D5-4634-9F3E-6921E364A10F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3F548878-CA20-48D3-92B8-E18F17F8E1F4}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A2E37851-374A-47C3-8C02-38B71E9AD91E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8071435B-CEC3-43BD-A22C-4CBB864A4F5E}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{608AD6B2-D322-4EAF-B898-CCB874FE229E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{159C3AF6-C29A-404C-BD84-DCC338D21EC6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A35A8FC6-48ED-4E31-91A3-FE13B7F7FAF3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9A233887-905A-4768-93B7-32392690AFED}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7F1BEC25-CD92-4E14-AA33-CA1BFC6BEE8C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DB533F6F-9375-4376-AFEC-C971771321D4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{721E667D-D702-45DF-B59F-D3E8B5C408E8}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1EA0244C-20D5-4104-8DD1-04472CF68F51}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7739,7 +7739,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01EEC27-4C50-407D-A7E0-342F8B652608}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8393C71A-B54B-49B2-859A-77BE35B25F08}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9004,18 +9004,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8E2EDD7B-3B71-4B06-8379-0FAC0A6BEBC8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{11247788-DD28-4E6E-9C20-78C7E71C7B45}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8753BD2D-35FC-44B2-B421-EACE6BD2C838}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CB2CFFEA-6616-4D84-A533-DDEDBC8E9180}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{17C04FA0-205B-4C8F-9AF2-40B545C8FE33}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{59C13A81-77EB-4D6B-B58F-E14FABB53523}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A1097128-E9FA-4D2C-815E-4347F3BB2D93}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7EB21370-D058-4FCC-8771-FA75DF2E477A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{ABDD3403-0139-4DFD-BB58-BB16984DE509}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3F677F20-EAD9-47F2-898A-4D9CE1FE30C5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4AC1B589-183E-4DE8-9178-57775358F057}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2A1E930D-F091-4036-8064-FE21179722B0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D4D2D970-1C2A-4D43-97A9-45BD857205CF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{241ACA61-612C-4752-A7B0-85DF49324BD5}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{63DAC643-ED64-48F7-82E4-70B9B176034A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2B0C80E5-221E-42E3-BA6D-C58C3CDC5CA7}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{2A432A94-8CCB-4972-9811-0113CD0BD271}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0A07EFCE-FFDD-4FE2-9831-085CF29B3F9E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{00F24F5D-9A69-4F83-89E8-F40F3662069F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C8CE8739-0B21-459B-8039-8FC21CE805FE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F867C09B-535A-4C05-9373-A8F2A2395D64}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{ACBD232B-9C62-42D7-BEF4-5E052069A0A4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{46E0241E-160A-4C50-8A55-92F87A2291DE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B5357E3F-5391-43A0-B7AD-A555BABF1112}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9028,7 +9028,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE219F66-4480-4A7C-9FAA-51C9E2A4A9F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE993467-6517-4E0C-8F56-6FE04CE665BE}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10293,18 +10293,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DB4120F8-64C7-4D50-8A81-7A35B1C1D74B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DAF35B13-BE84-433D-A9E0-5712605F8BF1}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D132F4E6-5D43-4F9D-9222-B0853E76FF0B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8ECFC00B-9DA8-4061-A3DF-94127E63803A}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{19B7B220-D2DF-4F55-AEA4-C229272C933F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0C8585CC-F9EB-42DC-9A98-8569DAF91B55}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{ED7DF289-7E05-42B4-AD58-C4B3EFD67FDB}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{76C95DAF-C1A8-4F1A-95A6-830FCE1295C6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{837D805B-2B9F-4F9E-A264-41B746812DD4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{79D1D948-F3AC-48AE-B3D3-3CE1BCB5E1B9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B1C996FD-A1B9-48B1-B26C-A1B623824309}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A2322791-9F0E-45E5-9E7A-976C320BE81F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{674984A0-7DC0-4667-A87F-D3CB0047E8AE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B0E212A6-8B79-42F9-B2C3-041E759A3E7A}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C00E50EA-9B63-4DA1-8200-F21D9FBD8F41}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{81B5BDEF-A719-414A-BE4E-7B262474E713}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{7D256664-E413-4F04-8C43-83AB3EB9DB8D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C233AE5A-9FB1-45C3-B6C3-4A77B56C1AA8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{484A6A03-99A0-4F38-8B97-DBCD23B42D6F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3DC2F7E3-1F3D-4161-8230-04B7702612BC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F9D3268C-1C39-49C5-A303-75CBE51988A6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2EF3080A-F127-42FD-8CDB-D77E38C89891}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AFA57497-0CF4-4A1E-A59F-4F9A02D2E6A9}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7971A585-8318-47F7-BD49-B3AE503D8D09}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10317,7 +10317,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA84723-C73D-4085-945C-7828089F99FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B602B84-402F-4F29-92FC-BF0E3A7FC6A5}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11582,18 +11582,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{61E6A13D-5A96-4B4F-BCD1-C931CC51B493}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6499041B-03B0-4DFB-A554-F14B9B53D602}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{800DECE2-99CC-4CE6-9AE7-E73B541A2DAC}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4C410689-61F4-49D4-AA46-B83EC650676B}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{8281E1AA-DC22-4F6E-BCD7-B5DD3329BDDD}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4DFE5396-2009-43A9-8216-540C9418B318}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4FFB62FD-4FB3-4A80-BE93-7A123563EBC8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1903C649-742E-409B-86FE-27112AA84B89}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2FABA4E6-37A9-4F56-AA6C-64BC48C59153}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FC352A14-905A-4B89-8E90-0AF870474D2F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{20A520C9-BF29-445E-8738-E09CD990D6F9}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{89E8AEA5-AEDF-48EF-B52E-BBE9628DA00C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D5FA3869-A08D-4BD5-AE2A-1908BF9115C1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1AD49757-FCF0-445C-9CF4-95D40D312021}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9FFCB0C7-DBEC-4084-849E-F52E7D107ED8}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8BF8B33A-78D8-48AC-8BC4-CDAFC5056139}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{5555BD38-7126-496E-9B8E-54F8F361FBE0}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9765148A-618A-4F04-A13D-F6038446DA3E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C6E9CAFB-4969-4C33-999A-310B1E067735}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CB3D7C16-E7CA-4E47-9C2A-3FFA0B33AB90}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2731FBC7-2144-42D6-96B9-72298FBF6A87}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{687019D6-7C65-48D3-B110-5A94F5427567}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AF2A64CF-17EA-4CA9-B314-E270344E3D5C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{21C766FC-57B4-4DC9-B814-986BCA134286}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11606,7 +11606,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3C349D4-CAE6-48E2-9BA6-5DAEB7D8B40A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D37C8731-5732-40CD-AFDD-5C83BE5F0AF8}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12871,18 +12871,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{634765AC-1EE8-420F-B9E4-50553AF81DB2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{56A97F71-B8C9-4FBF-8970-1F03879AD47C}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{68B61C32-2387-4646-9DB0-9D38F9B661E5}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{507EF1C3-AEBF-4102-A4A1-44BA6CEE30EF}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{D0BAE0D3-F8FA-41A4-92C4-07A2849657A6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3FC1B666-203F-46F7-AFC7-4F57D1B9673B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{434BEAEA-26D2-4F1B-BE7D-0B95D28CD879}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{45BAA894-CC83-477D-87CC-61145BFC8D4B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1EA47CC0-9A88-443D-9EEE-C48CB79C2981}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1AE0727F-C7A3-49A9-B541-441999777D04}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C7AF02FE-F5B9-42DA-B318-1BFC530F9480}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3B610EC7-02F4-47B2-92EE-03DCB9125044}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{44086F11-BC19-4B6D-9986-4A9AFD45E4A2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F591085B-C917-49B4-8099-CA5CF73A7143}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{DA59F518-D483-4370-9EE0-AFD495FFC7B4}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9A4DF5DE-8A46-4D1D-B3F0-AA639174242C}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{93014C0F-8E2F-455A-93C3-88ECC9236163}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7A6F7EAB-C699-4E53-89C1-51F9FA1F0F13}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D7576A9C-643A-488B-AC3E-E6D4D37BA0E5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{41F99A1A-8EFF-47D0-8669-94FED12018EF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{37F0F52E-77AB-433D-ADDC-7F2CC4132E5A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{ABCD42A9-7620-416B-8BB0-1AFDB261E895}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D835E85D-DBCB-485A-BF9A-B0B670F42688}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8D7A3A2C-6B06-4EF2-89E7-E597E00F1D12}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12895,7 +12895,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{825C14FE-C051-4A9F-AB84-6AB7E12FF626}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C96A386A-94F6-48C8-AD34-5A0EC47335B6}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14160,18 +14160,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E5376784-886C-4CE2-8A37-AA05D4A91E19}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{94797403-9DAA-4E9C-9D73-E6A769C5C041}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{19F55685-EB18-4212-862E-F9284E9FA6BD}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E93402CC-468D-4E8C-A20F-F00CE74FF6CA}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{DA0D0B9C-083B-44D1-8B35-1D8BAE07A3CF}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0C371940-8EDC-4885-9F63-922AEEF8FE0E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{046117FB-2228-4544-8DFC-D57297AF953C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{124FE1C9-1D0B-4A3C-89ED-F13FB971DC92}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{58CBD713-174A-4B27-B35A-479DA0103B4F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3529CDA6-FD60-4F08-A2DE-E8B7A7CAEFD5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FDD85BB9-E758-41B4-955C-C81981440AF6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FBA7B985-2AA0-4D06-8134-DAA04D671288}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{506AAF74-0200-433D-9EA2-792AAFD33146}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FC7E1C3E-F032-4CCD-BFD3-1F222505A8AC}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{FD5948F7-7F43-4EE1-91AC-A00D0C6D1AD7}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B75BC2F0-DD14-4325-85DB-3E16EFB39648}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{8318DAC6-F046-48C2-BAA5-4DE09AAB2DF8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4380A600-BB02-43D8-8FF2-580AD404FB74}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{54D040D3-ABE0-4E12-AC16-B1751E8DBD55}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7AABAADD-D3A9-49D7-97E7-705724F66E55}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7CA2E524-0981-46F7-8465-E3656AC40167}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9C74124C-ACC2-4097-83C1-32A84BCF52EB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5DEA6596-7433-48D7-9AEA-FC99F909360F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7CF4279D-ED4B-4F90-846D-F905BB0B87A1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14184,7 +14184,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77FA49CF-6711-438D-BDFE-C91A2D023332}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D36E24A1-C6F2-498D-853D-E03E5C3BF783}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15449,18 +15449,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A083BD1F-66D9-4E2A-B17D-3A2DA204A678}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1C22ECF3-CEAC-49E0-96E6-C3F7C417E18D}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8C65F83B-A512-4339-8F51-3875A0D03299}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{85075C46-7422-41E0-A746-E9E4E5ABFFB9}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{4D765937-67BC-40D8-9933-2EC4EBC927F8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D80F9892-1D76-4A73-9D05-D52720269D7E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F7B5E344-D1D9-4454-A5C3-737ED67DD382}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{93D8A2A0-3252-4766-BBD7-D4A946F092D1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1A3B1B03-7136-4441-996B-80AA471DA7C0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7ED46268-296B-4B01-B54E-A2475E702142}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2D95A872-B6B4-43BE-8087-DD9AA7AF6D1C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EE69587D-05BD-4244-A327-00A58AC8A6E0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{22C650B3-C7AB-4824-9A0B-B98057584894}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{263D3768-316D-48E5-881B-892F9F918577}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5C343529-5A31-40AE-91F0-27CC2896BBAD}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0AD79C23-EF06-4990-B0A0-214B0FF31A8B}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{3FA86699-28F5-4021-BF02-35B803EFE8B4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2A3C3CC3-C4E7-41C7-8F0D-747CF474F6BD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9D956F5A-B76C-4CB0-A3DF-00866BC8A21C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A6CD853E-3E6C-4ABB-BC40-4250344DECF4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BA754B71-3B15-4D50-B693-8C05B741870B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{01D8A27B-C014-42AC-8035-3DA9531CD2A3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4FF6CBEF-AEA6-4786-96B6-8219FBA29CF6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4CC14510-4DF0-48E2-8CB2-2F9F3E87FBB5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15473,7 +15473,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08334143-ABF8-4565-9FB4-F4FBF16A936D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8A92405-3300-4BA0-9687-43DADA69F00E}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16738,18 +16738,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{69145510-DE19-44B6-B1DA-FE4274F8F1F8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F33E165A-2EFB-4608-BE3E-D3E82ADC70B7}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C9D39956-4D24-4581-8AE6-EA6DF5799B0C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F34257C6-9B1F-4A50-8561-F7740700516C}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{8C28CAC7-7C74-4A95-8EEB-488D17C50B54}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8493C037-EC7F-400C-87B9-29585628CBFB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{608AB540-92E4-423A-8A1F-C16A61F43C45}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BAED00E2-2CD9-4335-99E5-9C3F4574E7A7}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{75F1EE0D-44A9-4290-9117-6C9BD1E11D67}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7B5F7BBF-B90E-48A2-A6E5-10C6D0B4DEB0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E7C0CF9B-9B30-4DEF-A673-8DE9BD8FB775}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{67BE7A21-BBA2-417B-8A71-CE7F2FA6676B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{924BDE8A-41A3-4EDF-8D8A-52FDE564B179}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C7C44305-4359-46CC-9307-C3424D6908B9}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3F2747DC-5E82-415C-B165-02989614B629}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BCF8D968-EC20-446F-A27C-E549F339DDCC}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{52DB1237-1E4E-4521-A717-F3A4D3197B1C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B2F3E4DE-C1AC-4A01-854B-FF4D8F3A6BE3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E052BAF0-E6C9-4A3A-8697-FC939A0FBA29}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8ACACF71-5031-4ACE-9412-83948F1841D7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FE0D1BF8-FD09-4C26-AF62-F0E9AF4826EA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C1068029-3C33-40DB-B782-24409B17A8A0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FB580D10-6A00-47B8-8690-CFBAE802FAA4}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{75FC0BDE-43AB-436C-BE55-F87D8A269242}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
